--- a/ph_distr_direct_60deg.xlsx
+++ b/ph_distr_direct_60deg.xlsx
@@ -443,7 +443,7 @@
         <v>-0.4875</v>
       </c>
       <c r="B2" t="n">
-        <v>-497.9568800937687</v>
+        <v>-530.4437389959993</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>-0.4776515151515152</v>
       </c>
       <c r="B3" t="n">
-        <v>-495.719488822694</v>
+        <v>-528.426253938469</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>-0.4678030303030303</v>
       </c>
       <c r="B4" t="n">
-        <v>-493.4885757788339</v>
+        <v>-526.4087688809389</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>-0.4579545454545455</v>
       </c>
       <c r="B5" t="n">
-        <v>-491.2640539010096</v>
+        <v>-524.3912838234087</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>-0.4481060606060606</v>
       </c>
       <c r="B6" t="n">
-        <v>-489.0458251873731</v>
+        <v>-522.3737987658783</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>-0.4382575757575758</v>
       </c>
       <c r="B7" t="n">
-        <v>-486.8337814328816</v>
+        <v>-520.3563137083481</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>-0.428409090909091</v>
       </c>
       <c r="B8" t="n">
-        <v>-484.6278048809853</v>
+        <v>-518.338828650818</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>-0.4185606060606061</v>
       </c>
       <c r="B9" t="n">
-        <v>-482.4277688707886</v>
+        <v>-516.3213435932878</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>-0.4087121212121212</v>
       </c>
       <c r="B10" t="n">
-        <v>-480.2335387350739</v>
+        <v>-514.3038585357575</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>-0.3988636363636364</v>
       </c>
       <c r="B11" t="n">
-        <v>-478.0449728042049</v>
+        <v>-512.2863734782273</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>-0.3890151515151515</v>
       </c>
       <c r="B12" t="n">
-        <v>-475.8619230084859</v>
+        <v>-510.2688884206972</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>-0.3791666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>-473.6842316808124</v>
+        <v>-508.2514033631668</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>-0.3693181818181819</v>
       </c>
       <c r="B14" t="n">
-        <v>-471.5117319213629</v>
+        <v>-506.2339183056367</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>-0.359469696969697</v>
       </c>
       <c r="B15" t="n">
-        <v>-469.3442559475634</v>
+        <v>-504.2164332481065</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>-0.3496212121212122</v>
       </c>
       <c r="B16" t="n">
-        <v>-467.181644180519</v>
+        <v>-502.1989481905763</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>-0.3397727272727273</v>
       </c>
       <c r="B17" t="n">
-        <v>-465.0237400933622</v>
+        <v>-500.181463133046</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>-0.3299242424242425</v>
       </c>
       <c r="B18" t="n">
-        <v>-462.8531112353219</v>
+        <v>-498.1639780755159</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>-0.3200757575757576</v>
       </c>
       <c r="B19" t="n">
-        <v>-460.6611405560274</v>
+        <v>-496.1464930179856</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>-0.3102272727272727</v>
       </c>
       <c r="B20" t="n">
-        <v>-458.4669563454511</v>
+        <v>-494.1290079604553</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>-0.3003787878787879</v>
       </c>
       <c r="B21" t="n">
-        <v>-456.2770372045664</v>
+        <v>-492.1115229029252</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>-0.290530303030303</v>
       </c>
       <c r="B22" t="n">
-        <v>-454.0888455213233</v>
+        <v>-490.094037845395</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>-0.2806818181818182</v>
       </c>
       <c r="B23" t="n">
-        <v>-451.9618765401782</v>
+        <v>-488.0765527878648</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>-0.2708333333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-449.9468842435882</v>
+        <v>-486.0590677303346</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>-0.2609848484848485</v>
       </c>
       <c r="B25" t="n">
-        <v>-447.9401372809008</v>
+        <v>-484.0415826728043</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>-0.2511363636363637</v>
       </c>
       <c r="B26" t="n">
-        <v>-445.936154226212</v>
+        <v>-482.0240976152742</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>-0.2412878787878788</v>
       </c>
       <c r="B27" t="n">
-        <v>-443.9352979008839</v>
+        <v>-480.006612557744</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>-0.2314393939393939</v>
       </c>
       <c r="B28" t="n">
-        <v>-441.9377318458589</v>
+        <v>-477.9891275002137</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>-0.2215909090909091</v>
       </c>
       <c r="B29" t="n">
-        <v>-439.9431989763331</v>
+        <v>-475.9716424426834</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>-0.2117424242424243</v>
       </c>
       <c r="B30" t="n">
-        <v>-437.9515491870872</v>
+        <v>-473.9541573851533</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>-0.2018939393939394</v>
       </c>
       <c r="B31" t="n">
-        <v>-435.962706504493</v>
+        <v>-471.9366723276231</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>-0.1920454545454546</v>
       </c>
       <c r="B32" t="n">
-        <v>-433.9765512497934</v>
+        <v>-469.9191872700928</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>-0.1821969696969697</v>
       </c>
       <c r="B33" t="n">
-        <v>-431.9929702337748</v>
+        <v>-467.9017022125626</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>-0.1723484848484849</v>
       </c>
       <c r="B34" t="n">
-        <v>-430.0119008932315</v>
+        <v>-465.8842171550324</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>-0.1625</v>
       </c>
       <c r="B35" t="n">
-        <v>-428.0332018815863</v>
+        <v>-463.8667320975021</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>-0.1526515151515151</v>
       </c>
       <c r="B36" t="n">
-        <v>-426.0405134193072</v>
+        <v>-461.8492470399718</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>-0.1428030303030303</v>
       </c>
       <c r="B37" t="n">
-        <v>-424.009034789251</v>
+        <v>-459.8317619824417</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>-0.1329545454545454</v>
       </c>
       <c r="B38" t="n">
-        <v>-421.9740820776957</v>
+        <v>-457.8142769249115</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>-0.1231060606060606</v>
       </c>
       <c r="B39" t="n">
-        <v>-419.9403270721899</v>
+        <v>-455.7967918673813</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>-0.1132575757575758</v>
       </c>
       <c r="B40" t="n">
-        <v>-417.9080189802622</v>
+        <v>-453.7793068098512</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>-0.1034090909090909</v>
       </c>
       <c r="B41" t="n">
-        <v>-415.8782491327676</v>
+        <v>-451.7618217523208</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>-0.09356060606060607</v>
       </c>
       <c r="B42" t="n">
-        <v>-413.8580381632743</v>
+        <v>-449.7443366947906</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>-0.08371212121212124</v>
       </c>
       <c r="B43" t="n">
-        <v>-411.9663896274537</v>
+        <v>-447.7268516372604</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>-0.07386363636363635</v>
       </c>
       <c r="B44" t="n">
-        <v>-410.1085719613559</v>
+        <v>-445.7093665797303</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>-0.06401515151515152</v>
       </c>
       <c r="B45" t="n">
-        <v>-408.2520253587084</v>
+        <v>-443.6918815222001</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>-0.0541666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>-406.396531916876</v>
+        <v>-441.6743964646699</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>-0.04431818181818181</v>
       </c>
       <c r="B47" t="n">
-        <v>-404.5421343274203</v>
+        <v>-439.6569114071397</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>-0.03446969696969698</v>
       </c>
       <c r="B48" t="n">
-        <v>-402.6887742494051</v>
+        <v>-437.6394263496094</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>-0.0246212121212121</v>
       </c>
       <c r="B49" t="n">
-        <v>-400.836517070394</v>
+        <v>-435.6219412920792</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>-0.01477272727272727</v>
       </c>
       <c r="B50" t="n">
-        <v>-398.9852105981539</v>
+        <v>-433.604456234549</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>-0.004924242424242442</v>
       </c>
       <c r="B51" t="n">
-        <v>-397.0990777689159</v>
+        <v>-431.5869711770186</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.004924242424242442</v>
       </c>
       <c r="B52" t="n">
-        <v>-395.1822190975707</v>
+        <v>-429.5694861194885</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.01477272727272727</v>
       </c>
       <c r="B53" t="n">
-        <v>-393.2660381399747</v>
+        <v>-427.5520010619584</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.02462121212121215</v>
       </c>
       <c r="B54" t="n">
-        <v>-391.3504603562978</v>
+        <v>-425.5345160044281</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.03446969696969693</v>
       </c>
       <c r="B55" t="n">
-        <v>-389.4354736722565</v>
+        <v>-423.5170309468979</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.04431818181818181</v>
       </c>
       <c r="B56" t="n">
-        <v>-387.5210570027575</v>
+        <v>-421.4995458893677</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.0541666666666667</v>
       </c>
       <c r="B57" t="n">
-        <v>-385.6071534398693</v>
+        <v>-419.4820608318374</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.06401515151515147</v>
       </c>
       <c r="B58" t="n">
-        <v>-383.6938267103106</v>
+        <v>-417.4645757743073</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.07386363636363635</v>
       </c>
       <c r="B59" t="n">
-        <v>-381.7809151336187</v>
+        <v>-415.4470907167769</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.08371212121212124</v>
       </c>
       <c r="B60" t="n">
-        <v>-379.9011540898704</v>
+        <v>-413.4296056592467</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.09356060606060612</v>
       </c>
       <c r="B61" t="n">
-        <v>-378.1340800416916</v>
+        <v>-411.4121206017165</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.1034090909090909</v>
       </c>
       <c r="B62" t="n">
-        <v>-376.3710724934873</v>
+        <v>-409.3946355441864</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.1132575757575758</v>
       </c>
       <c r="B63" t="n">
-        <v>-374.608237165318</v>
+        <v>-407.3771504866561</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.1231060606060607</v>
       </c>
       <c r="B64" t="n">
-        <v>-372.8304551517994</v>
+        <v>-405.3596654291259</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.1329545454545454</v>
       </c>
       <c r="B65" t="n">
-        <v>-371.0037782332753</v>
+        <v>-403.3421803715957</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.1428030303030303</v>
       </c>
       <c r="B66" t="n">
-        <v>-369.1756832033558</v>
+        <v>-401.3246953140655</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.1526515151515152</v>
       </c>
       <c r="B67" t="n">
-        <v>-367.347877372395</v>
+        <v>-399.3072102565353</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.1625</v>
       </c>
       <c r="B68" t="n">
-        <v>-365.5203608904691</v>
+        <v>-397.2897251990051</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.1723484848484849</v>
       </c>
       <c r="B69" t="n">
-        <v>-363.6931340711934</v>
+        <v>-395.2722401414748</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.1821969696969697</v>
       </c>
       <c r="B70" t="n">
-        <v>-361.8661975239124</v>
+        <v>-393.2547550839447</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.1920454545454545</v>
       </c>
       <c r="B71" t="n">
-        <v>-360.0395517870526</v>
+        <v>-391.2372700264144</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2018939393939394</v>
       </c>
       <c r="B72" t="n">
-        <v>-358.2131980137854</v>
+        <v>-389.2197849688843</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2117424242424243</v>
       </c>
       <c r="B73" t="n">
-        <v>-356.3871360902726</v>
+        <v>-387.202299911354</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2215909090909092</v>
       </c>
       <c r="B74" t="n">
-        <v>-354.5613701184636</v>
+        <v>-385.1848148538238</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2314393939393939</v>
       </c>
       <c r="B75" t="n">
-        <v>-352.7358940015274</v>
+        <v>-383.1673297962935</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2412878787878788</v>
       </c>
       <c r="B76" t="n">
-        <v>-350.9107228041573</v>
+        <v>-381.1498447387635</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2511363636363637</v>
       </c>
       <c r="B77" t="n">
-        <v>-349.0544406794156</v>
+        <v>-379.1323596812332</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2609848484848485</v>
       </c>
       <c r="B78" t="n">
-        <v>-347.2381938756441</v>
+        <v>-377.114874623703</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2708333333333334</v>
       </c>
       <c r="B79" t="n">
-        <v>-345.4738773027821</v>
+        <v>-375.0973895661728</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2806818181818183</v>
       </c>
       <c r="B80" t="n">
-        <v>-343.7097620124619</v>
+        <v>-373.0799045086425</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.290530303030303</v>
       </c>
       <c r="B81" t="n">
-        <v>-341.9458344008046</v>
+        <v>-371.0624194511123</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.3003787878787879</v>
       </c>
       <c r="B82" t="n">
-        <v>-340.1821108838892</v>
+        <v>-369.0449343935821</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.3102272727272728</v>
       </c>
       <c r="B83" t="n">
-        <v>-338.4185971123428</v>
+        <v>-367.0274493360519</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.3200757575757576</v>
       </c>
       <c r="B84" t="n">
-        <v>-336.6553025191846</v>
+        <v>-365.0099642785217</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.3299242424242425</v>
       </c>
       <c r="B85" t="n">
-        <v>-334.8922349616444</v>
+        <v>-362.9924792209915</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.3397727272727273</v>
       </c>
       <c r="B86" t="n">
-        <v>-333.129404432055</v>
+        <v>-360.9749941634612</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.3496212121212121</v>
       </c>
       <c r="B87" t="n">
-        <v>-331.3668139546398</v>
+        <v>-358.9575091059311</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.359469696969697</v>
       </c>
       <c r="B88" t="n">
-        <v>-329.6044940377061</v>
+        <v>-356.9400240484008</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3693181818181819</v>
       </c>
       <c r="B89" t="n">
-        <v>-327.8296642865993</v>
+        <v>-354.9225389908706</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3791666666666667</v>
       </c>
       <c r="B90" t="n">
-        <v>-326.0142290804144</v>
+        <v>-352.9050539333404</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3890151515151515</v>
       </c>
       <c r="B91" t="n">
-        <v>-324.1989182602532</v>
+        <v>-350.8875688758102</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3988636363636364</v>
       </c>
       <c r="B92" t="n">
-        <v>-322.383687960986</v>
+        <v>-348.87008381828</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.4087121212121213</v>
       </c>
       <c r="B93" t="n">
-        <v>-320.5685543569869</v>
+        <v>-346.8525987607497</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.4185606060606061</v>
       </c>
       <c r="B94" t="n">
-        <v>-318.7535014600452</v>
+        <v>-344.8351137032195</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.428409090909091</v>
       </c>
       <c r="B95" t="n">
-        <v>-316.9385836124829</v>
+        <v>-342.8176286456892</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.4382575757575758</v>
       </c>
       <c r="B96" t="n">
-        <v>-315.1488119717653</v>
+        <v>-340.8001435881591</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.4481060606060606</v>
       </c>
       <c r="B97" t="n">
-        <v>-313.429899260758</v>
+        <v>-338.7826585306289</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.4579545454545455</v>
       </c>
       <c r="B98" t="n">
-        <v>-311.7112305668122</v>
+        <v>-336.7651734730987</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.4678030303030304</v>
       </c>
       <c r="B99" t="n">
-        <v>-309.9927473604531</v>
+        <v>-334.7476884155684</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.4776515151515152</v>
       </c>
       <c r="B100" t="n">
-        <v>-308.2744736320155</v>
+        <v>-332.7302033580382</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.4875</v>
       </c>
       <c r="B101" t="n">
-        <v>-306.5509921814727</v>
+        <v>-330.712718300508</v>
       </c>
     </row>
   </sheetData>

--- a/ph_distr_direct_60deg.xlsx
+++ b/ph_distr_direct_60deg.xlsx
@@ -382,7 +382,7 @@
         <v>-0.4875</v>
       </c>
       <c r="B2">
-        <v>-515.5450963102778</v>
+        <v>-501.8642238104799</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>-0.4776515151515152</v>
       </c>
       <c r="B3">
-        <v>-513.2212758534027</v>
+        <v>-499.5404033536049</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>-0.4678030303030303</v>
       </c>
       <c r="B4">
-        <v>-510.8974553965278</v>
+        <v>-497.21658289673</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>-0.4579545454545455</v>
       </c>
       <c r="B5">
-        <v>-508.573634939653</v>
+        <v>-494.8927624398549</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>-0.4481060606060606</v>
       </c>
       <c r="B6">
-        <v>-506.2498144827779</v>
+        <v>-492.56894198298</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>-0.4382575757575758</v>
       </c>
       <c r="B7">
-        <v>-503.925994025903</v>
+        <v>-490.245121526105</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>-0.428409090909091</v>
       </c>
       <c r="B8">
-        <v>-501.6021735690281</v>
+        <v>-487.92130106923</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>-0.4185606060606061</v>
       </c>
       <c r="B9">
-        <v>-499.2783531121529</v>
+        <v>-485.597480612355</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>-0.4087121212121212</v>
       </c>
       <c r="B10">
-        <v>-496.9545326552779</v>
+        <v>-483.27366015548</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>-0.3988636363636364</v>
       </c>
       <c r="B11">
-        <v>-494.630712198403</v>
+        <v>-480.9498396986051</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>-0.3890151515151515</v>
       </c>
       <c r="B12">
-        <v>-492.306891741528</v>
+        <v>-478.62601924173</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>-0.3791666666666667</v>
       </c>
       <c r="B13">
-        <v>-489.9830712846531</v>
+        <v>-476.3021987848551</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>-0.3693181818181819</v>
       </c>
       <c r="B14">
-        <v>-487.659250827778</v>
+        <v>-473.9783783279803</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>-0.359469696969697</v>
       </c>
       <c r="B15">
-        <v>-485.3354303709031</v>
+        <v>-471.6545578711052</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>-0.3496212121212122</v>
       </c>
       <c r="B16">
-        <v>-483.0116099140281</v>
+        <v>-469.3307374142303</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>-0.3397727272727273</v>
       </c>
       <c r="B17">
-        <v>-480.6877894571531</v>
+        <v>-467.0069169573552</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>-0.3299242424242425</v>
       </c>
       <c r="B18">
-        <v>-478.3639690002782</v>
+        <v>-464.6830965004801</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>-0.3200757575757576</v>
       </c>
       <c r="B19">
-        <v>-476.0401485434031</v>
+        <v>-462.3592760436053</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>-0.3102272727272727</v>
       </c>
       <c r="B20">
-        <v>-473.7163280865281</v>
+        <v>-460.0354555867303</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>-0.3003787878787879</v>
       </c>
       <c r="B21">
-        <v>-471.3925076296532</v>
+        <v>-457.7116351298553</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>-0.290530303030303</v>
       </c>
       <c r="B22">
-        <v>-469.0686871727783</v>
+        <v>-455.3878146729803</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>-0.2806818181818182</v>
       </c>
       <c r="B23">
-        <v>-466.7448667159033</v>
+        <v>-453.0639942161054</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>-0.2708333333333334</v>
       </c>
       <c r="B24">
-        <v>-464.4210462590282</v>
+        <v>-450.7401737592303</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>-0.2609848484848485</v>
       </c>
       <c r="B25">
-        <v>-462.0972258021533</v>
+        <v>-448.4163533023553</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>-0.2511363636363637</v>
       </c>
       <c r="B26">
-        <v>-459.7734053452782</v>
+        <v>-446.0925328454804</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>-0.2412878787878788</v>
       </c>
       <c r="B27">
-        <v>-457.4495848884032</v>
+        <v>-443.7687123886055</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>-0.2314393939393939</v>
       </c>
       <c r="B28">
-        <v>-455.1257644315283</v>
+        <v>-441.4448919317304</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>-0.2215909090909091</v>
       </c>
       <c r="B29">
-        <v>-452.8019439746533</v>
+        <v>-439.1210714748555</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>-0.2117424242424243</v>
       </c>
       <c r="B30">
-        <v>-450.4781235177784</v>
+        <v>-436.7972510179804</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>-0.2018939393939394</v>
       </c>
       <c r="B31">
-        <v>-448.1543030609033</v>
+        <v>-434.4734305611054</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>-0.1920454545454546</v>
       </c>
       <c r="B32">
-        <v>-445.8304826040284</v>
+        <v>-432.1496101042305</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>-0.1821969696969697</v>
       </c>
       <c r="B33">
-        <v>-443.5066621471534</v>
+        <v>-429.8257896473555</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>-0.1723484848484849</v>
       </c>
       <c r="B34">
-        <v>-441.1828416902784</v>
+        <v>-427.5019691904805</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>-0.1625</v>
       </c>
       <c r="B35">
-        <v>-438.8590212334035</v>
+        <v>-425.1781487336055</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>-0.1526515151515151</v>
       </c>
       <c r="B36">
-        <v>-436.5352007765285</v>
+        <v>-422.8543282767305</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>-0.1428030303030303</v>
       </c>
       <c r="B37">
-        <v>-434.2113803196535</v>
+        <v>-420.5305078198554</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>-0.1329545454545454</v>
       </c>
       <c r="B38">
-        <v>-431.8875598627785</v>
+        <v>-418.2066873629806</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>-0.1231060606060606</v>
       </c>
       <c r="B39">
-        <v>-429.5637394059036</v>
+        <v>-415.8828669061056</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>-0.1132575757575758</v>
       </c>
       <c r="B40">
-        <v>-427.2399189490285</v>
+        <v>-413.5590464492307</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>-0.1034090909090909</v>
       </c>
       <c r="B41">
-        <v>-424.9160984921535</v>
+        <v>-411.2352259923557</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>-0.09356060606060607</v>
       </c>
       <c r="B42">
-        <v>-422.5922780352786</v>
+        <v>-408.9114055354806</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>-0.08371212121212124</v>
       </c>
       <c r="B43">
-        <v>-420.2684575784036</v>
+        <v>-406.5875850786057</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>-0.07386363636363635</v>
       </c>
       <c r="B44">
-        <v>-417.9446371215286</v>
+        <v>-404.2637646217307</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>-0.06401515151515152</v>
       </c>
       <c r="B45">
-        <v>-415.6208166646536</v>
+        <v>-401.9399441648557</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>-0.0541666666666667</v>
       </c>
       <c r="B46">
-        <v>-413.2969962077788</v>
+        <v>-399.6161237079808</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>-0.04431818181818181</v>
       </c>
       <c r="B47">
-        <v>-410.9731757509037</v>
+        <v>-397.2923032511057</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>-0.03446969696969698</v>
       </c>
       <c r="B48">
-        <v>-408.6493552940286</v>
+        <v>-394.9684827942308</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>-0.0246212121212121</v>
       </c>
       <c r="B49">
-        <v>-406.3255348371537</v>
+        <v>-392.6446623373558</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>-0.01477272727272727</v>
       </c>
       <c r="B50">
-        <v>-404.0017143802787</v>
+        <v>-390.3208418804809</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>-0.004924242424242442</v>
       </c>
       <c r="B51">
-        <v>-401.6778939234037</v>
+        <v>-387.9970214236058</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>0.004924242424242442</v>
       </c>
       <c r="B52">
-        <v>-399.3540734665288</v>
+        <v>-385.6732009667309</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>0.01477272727272727</v>
       </c>
       <c r="B53">
-        <v>-397.0302530096537</v>
+        <v>-383.3493805098558</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>0.02462121212121215</v>
       </c>
       <c r="B54">
-        <v>-394.7064325527789</v>
+        <v>-381.0255600529809</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>0.03446969696969693</v>
       </c>
       <c r="B55">
-        <v>-392.3826120959037</v>
+        <v>-378.701739596106</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>0.04431818181818181</v>
       </c>
       <c r="B56">
-        <v>-390.0587916390289</v>
+        <v>-376.3779191392309</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>0.0541666666666667</v>
       </c>
       <c r="B57">
-        <v>-387.7349711821538</v>
+        <v>-374.054098682356</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>0.06401515151515147</v>
       </c>
       <c r="B58">
-        <v>-385.4111507252788</v>
+        <v>-371.7302782254809</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>0.07386363636363635</v>
       </c>
       <c r="B59">
-        <v>-383.0873302684039</v>
+        <v>-369.4064577686059</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>0.08371212121212124</v>
       </c>
       <c r="B60">
-        <v>-380.7635098115288</v>
+        <v>-367.0826373117311</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>0.09356060606060612</v>
       </c>
       <c r="B61">
-        <v>-378.4396893546539</v>
+        <v>-364.758816854856</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>0.1034090909090909</v>
       </c>
       <c r="B62">
-        <v>-376.115868897779</v>
+        <v>-362.4349963979811</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>0.1132575757575758</v>
       </c>
       <c r="B63">
-        <v>-373.792048440904</v>
+        <v>-360.1111759411061</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>0.1231060606060607</v>
       </c>
       <c r="B64">
-        <v>-371.468227984029</v>
+        <v>-357.7873554842312</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>0.1329545454545454</v>
       </c>
       <c r="B65">
-        <v>-369.1444075271539</v>
+        <v>-355.4635350273561</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>0.1428030303030303</v>
       </c>
       <c r="B66">
-        <v>-366.820587070279</v>
+        <v>-353.1397145704811</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>0.1526515151515152</v>
       </c>
       <c r="B67">
-        <v>-364.496766613404</v>
+        <v>-350.8158941136062</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>0.1625</v>
       </c>
       <c r="B68">
-        <v>-362.172946156529</v>
+        <v>-348.4920736567311</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>0.1723484848484849</v>
       </c>
       <c r="B69">
-        <v>-359.849125699654</v>
+        <v>-346.1682531998562</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>0.1821969696969697</v>
       </c>
       <c r="B70">
-        <v>-357.5253052427791</v>
+        <v>-343.8444327429811</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>0.1920454545454545</v>
       </c>
       <c r="B71">
-        <v>-355.2014847859042</v>
+        <v>-341.5206122861063</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>0.2018939393939394</v>
       </c>
       <c r="B72">
-        <v>-352.8776643290291</v>
+        <v>-339.1967918292312</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>0.2117424242424243</v>
       </c>
       <c r="B73">
-        <v>-350.5538438721541</v>
+        <v>-336.8729713723563</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>0.2215909090909092</v>
       </c>
       <c r="B74">
-        <v>-348.2300234152792</v>
+        <v>-334.5491509154813</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>0.2314393939393939</v>
       </c>
       <c r="B75">
-        <v>-345.9062029584042</v>
+        <v>-332.2253304586063</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>0.2412878787878788</v>
       </c>
       <c r="B76">
-        <v>-343.5823825015293</v>
+        <v>-329.9015100017313</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>0.2511363636363637</v>
       </c>
       <c r="B77">
-        <v>-341.2585620446542</v>
+        <v>-327.5776895448563</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>0.2609848484848485</v>
       </c>
       <c r="B78">
-        <v>-338.9347415877792</v>
+        <v>-325.2538690879814</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>0.2708333333333334</v>
       </c>
       <c r="B79">
-        <v>-336.6109211309042</v>
+        <v>-322.9300486311064</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>0.2806818181818183</v>
       </c>
       <c r="B80">
-        <v>-334.2871006740293</v>
+        <v>-320.6062281742314</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>0.290530303030303</v>
       </c>
       <c r="B81">
-        <v>-331.9632802171543</v>
+        <v>-318.2824077173563</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>0.3003787878787879</v>
       </c>
       <c r="B82">
-        <v>-329.6394597602794</v>
+        <v>-315.9585872604815</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>0.3102272727272728</v>
       </c>
       <c r="B83">
-        <v>-327.3156393034043</v>
+        <v>-313.6347668036066</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>0.3200757575757576</v>
       </c>
       <c r="B84">
-        <v>-324.9918188465294</v>
+        <v>-311.3109463467315</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>0.3299242424242425</v>
       </c>
       <c r="B85">
-        <v>-322.6679983896544</v>
+        <v>-308.9871258898565</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>0.3397727272727273</v>
       </c>
       <c r="B86">
-        <v>-320.3441779327793</v>
+        <v>-306.6633054329815</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>0.3496212121212121</v>
       </c>
       <c r="B87">
-        <v>-318.0203574759044</v>
+        <v>-304.3394849761066</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>0.359469696969697</v>
       </c>
       <c r="B88">
-        <v>-315.6965370190294</v>
+        <v>-302.0156645192316</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>0.3693181818181819</v>
       </c>
       <c r="B89">
-        <v>-313.3727165621544</v>
+        <v>-299.6918440623565</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>0.3791666666666667</v>
       </c>
       <c r="B90">
-        <v>-311.0488961052794</v>
+        <v>-297.3680236054817</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>0.3890151515151515</v>
       </c>
       <c r="B91">
-        <v>-308.7250756484045</v>
+        <v>-295.0442031486066</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>0.3988636363636364</v>
       </c>
       <c r="B92">
-        <v>-306.4012551915295</v>
+        <v>-292.7203826917316</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>0.4087121212121213</v>
       </c>
       <c r="B93">
-        <v>-304.0774347346545</v>
+        <v>-290.3965622348566</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>0.4185606060606061</v>
       </c>
       <c r="B94">
-        <v>-301.7536142777795</v>
+        <v>-288.0727417779816</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>0.428409090909091</v>
       </c>
       <c r="B95">
-        <v>-299.4297938209045</v>
+        <v>-285.7489213211067</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>0.4382575757575758</v>
       </c>
       <c r="B96">
-        <v>-297.1059733640295</v>
+        <v>-283.4251008642317</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>0.4481060606060606</v>
       </c>
       <c r="B97">
-        <v>-294.7821529071546</v>
+        <v>-281.1012804073567</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>0.4579545454545455</v>
       </c>
       <c r="B98">
-        <v>-292.4583324502796</v>
+        <v>-278.7774599504817</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>0.4678030303030304</v>
       </c>
       <c r="B99">
-        <v>-290.1345119934047</v>
+        <v>-276.4536394936067</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>0.4776515151515152</v>
       </c>
       <c r="B100">
-        <v>-287.8106915365297</v>
+        <v>-274.1298190367318</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>0.4875</v>
       </c>
       <c r="B101">
-        <v>-285.4868710796546</v>
+        <v>-271.8059985798568</v>
       </c>
     </row>
   </sheetData>

--- a/ph_distr_direct_60deg.xlsx
+++ b/ph_distr_direct_60deg.xlsx
@@ -382,7 +382,7 @@
         <v>-0.4875</v>
       </c>
       <c r="B2">
-        <v>-501.8642238104799</v>
+        <v>-468.5457716930114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>-0.4776515151515152</v>
       </c>
       <c r="B3">
-        <v>-499.5404033536049</v>
+        <v>-466.2219512361364</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>-0.4678030303030303</v>
       </c>
       <c r="B4">
-        <v>-497.21658289673</v>
+        <v>-463.8981307792615</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>-0.4579545454545455</v>
       </c>
       <c r="B5">
-        <v>-494.8927624398549</v>
+        <v>-461.5743103223865</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>-0.4481060606060606</v>
       </c>
       <c r="B6">
-        <v>-492.56894198298</v>
+        <v>-459.2504898655114</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>-0.4382575757575758</v>
       </c>
       <c r="B7">
-        <v>-490.245121526105</v>
+        <v>-456.9266694086365</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>-0.428409090909091</v>
       </c>
       <c r="B8">
-        <v>-487.92130106923</v>
+        <v>-454.6028489517615</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>-0.4185606060606061</v>
       </c>
       <c r="B9">
-        <v>-485.597480612355</v>
+        <v>-452.2790284948865</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>-0.4087121212121212</v>
       </c>
       <c r="B10">
-        <v>-483.27366015548</v>
+        <v>-449.9552080380116</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>-0.3988636363636364</v>
       </c>
       <c r="B11">
-        <v>-480.9498396986051</v>
+        <v>-447.6313875811366</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>-0.3890151515151515</v>
       </c>
       <c r="B12">
-        <v>-478.62601924173</v>
+        <v>-445.3075671242617</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>-0.3791666666666667</v>
       </c>
       <c r="B13">
-        <v>-476.3021987848551</v>
+        <v>-442.9837466673866</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>-0.3693181818181819</v>
       </c>
       <c r="B14">
-        <v>-473.9783783279803</v>
+        <v>-440.6599262105117</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>-0.359469696969697</v>
       </c>
       <c r="B15">
-        <v>-471.6545578711052</v>
+        <v>-438.3361057536366</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>-0.3496212121212122</v>
       </c>
       <c r="B16">
-        <v>-469.3307374142303</v>
+        <v>-436.0122852967617</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>-0.3397727272727273</v>
       </c>
       <c r="B17">
-        <v>-467.0069169573552</v>
+        <v>-433.6884648398867</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>-0.3299242424242425</v>
       </c>
       <c r="B18">
-        <v>-464.6830965004801</v>
+        <v>-431.3646443830116</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>-0.3200757575757576</v>
       </c>
       <c r="B19">
-        <v>-462.3592760436053</v>
+        <v>-429.0408239261367</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>-0.3102272727272727</v>
       </c>
       <c r="B20">
-        <v>-460.0354555867303</v>
+        <v>-426.7170034692617</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>-0.3003787878787879</v>
       </c>
       <c r="B21">
-        <v>-457.7116351298553</v>
+        <v>-424.3931830123868</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>-0.290530303030303</v>
       </c>
       <c r="B22">
-        <v>-455.3878146729803</v>
+        <v>-422.0693625555118</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>-0.2806818181818182</v>
       </c>
       <c r="B23">
-        <v>-453.0639942161054</v>
+        <v>-419.7455420986369</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>-0.2708333333333334</v>
       </c>
       <c r="B24">
-        <v>-450.7401737592303</v>
+        <v>-417.4217216417618</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>-0.2609848484848485</v>
       </c>
       <c r="B25">
-        <v>-448.4163533023553</v>
+        <v>-415.0979011848869</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>-0.2511363636363637</v>
       </c>
       <c r="B26">
-        <v>-446.0925328454804</v>
+        <v>-412.7740807280118</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>-0.2412878787878788</v>
       </c>
       <c r="B27">
-        <v>-443.7687123886055</v>
+        <v>-410.4502602711369</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>-0.2314393939393939</v>
       </c>
       <c r="B28">
-        <v>-441.4448919317304</v>
+        <v>-408.1264398142619</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>-0.2215909090909091</v>
       </c>
       <c r="B29">
-        <v>-439.1210714748555</v>
+        <v>-405.802619357387</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>-0.2117424242424243</v>
       </c>
       <c r="B30">
-        <v>-436.7972510179804</v>
+        <v>-403.4787989005119</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>-0.2018939393939394</v>
       </c>
       <c r="B31">
-        <v>-434.4734305611054</v>
+        <v>-401.154978443637</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>-0.1920454545454546</v>
       </c>
       <c r="B32">
-        <v>-432.1496101042305</v>
+        <v>-398.831157986762</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>-0.1821969696969697</v>
       </c>
       <c r="B33">
-        <v>-429.8257896473555</v>
+        <v>-396.507337529887</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>-0.1723484848484849</v>
       </c>
       <c r="B34">
-        <v>-427.5019691904805</v>
+        <v>-394.183517073012</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>-0.1625</v>
       </c>
       <c r="B35">
-        <v>-425.1781487336055</v>
+        <v>-391.8596966161369</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>-0.1526515151515151</v>
       </c>
       <c r="B36">
-        <v>-422.8543282767305</v>
+        <v>-389.535876159262</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>-0.1428030303030303</v>
       </c>
       <c r="B37">
-        <v>-420.5305078198554</v>
+        <v>-387.2120557023871</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>-0.1329545454545454</v>
       </c>
       <c r="B38">
-        <v>-418.2066873629806</v>
+        <v>-384.8882352455121</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>-0.1231060606060606</v>
       </c>
       <c r="B39">
-        <v>-415.8828669061056</v>
+        <v>-382.5644147886371</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>-0.1132575757575758</v>
       </c>
       <c r="B40">
-        <v>-413.5590464492307</v>
+        <v>-380.2405943317622</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>-0.1034090909090909</v>
       </c>
       <c r="B41">
-        <v>-411.2352259923557</v>
+        <v>-377.9167738748871</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>-0.09356060606060607</v>
       </c>
       <c r="B42">
-        <v>-408.9114055354806</v>
+        <v>-375.5929534180121</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>-0.08371212121212124</v>
       </c>
       <c r="B43">
-        <v>-406.5875850786057</v>
+        <v>-373.2691329611371</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>-0.07386363636363635</v>
       </c>
       <c r="B44">
-        <v>-404.2637646217307</v>
+        <v>-370.9453125042621</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>-0.06401515151515152</v>
       </c>
       <c r="B45">
-        <v>-401.9399441648557</v>
+        <v>-368.6214920473873</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>-0.0541666666666667</v>
       </c>
       <c r="B46">
-        <v>-399.6161237079808</v>
+        <v>-366.2976715905123</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>-0.04431818181818181</v>
       </c>
       <c r="B47">
-        <v>-397.2923032511057</v>
+        <v>-363.9738511336373</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>-0.03446969696969698</v>
       </c>
       <c r="B48">
-        <v>-394.9684827942308</v>
+        <v>-361.6500306767622</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>-0.0246212121212121</v>
       </c>
       <c r="B49">
-        <v>-392.6446623373558</v>
+        <v>-359.3262102198873</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>-0.01477272727272727</v>
       </c>
       <c r="B50">
-        <v>-390.3208418804809</v>
+        <v>-357.0023897630123</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>-0.004924242424242442</v>
       </c>
       <c r="B51">
-        <v>-387.9970214236058</v>
+        <v>-354.6785693061374</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>0.004924242424242442</v>
       </c>
       <c r="B52">
-        <v>-385.6732009667309</v>
+        <v>-352.3547488492624</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>0.01477272727272727</v>
       </c>
       <c r="B53">
-        <v>-383.3493805098558</v>
+        <v>-350.0309283923874</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>0.02462121212121215</v>
       </c>
       <c r="B54">
-        <v>-381.0255600529809</v>
+        <v>-347.7071079355125</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>0.03446969696969693</v>
       </c>
       <c r="B55">
-        <v>-378.701739596106</v>
+        <v>-345.3832874786375</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>0.04431818181818181</v>
       </c>
       <c r="B56">
-        <v>-376.3779191392309</v>
+        <v>-343.0594670217624</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>0.0541666666666667</v>
       </c>
       <c r="B57">
-        <v>-374.054098682356</v>
+        <v>-340.7356465648875</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>0.06401515151515147</v>
       </c>
       <c r="B58">
-        <v>-371.7302782254809</v>
+        <v>-338.4118261080124</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>0.07386363636363635</v>
       </c>
       <c r="B59">
-        <v>-369.4064577686059</v>
+        <v>-336.0880056511375</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>0.08371212121212124</v>
       </c>
       <c r="B60">
-        <v>-367.0826373117311</v>
+        <v>-333.7641851942625</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>0.09356060606060612</v>
       </c>
       <c r="B61">
-        <v>-364.758816854856</v>
+        <v>-331.4403647373874</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>0.1034090909090909</v>
       </c>
       <c r="B62">
-        <v>-362.4349963979811</v>
+        <v>-329.1165442805126</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>0.1132575757575758</v>
       </c>
       <c r="B63">
-        <v>-360.1111759411061</v>
+        <v>-326.7927238236376</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>0.1231060606060607</v>
       </c>
       <c r="B64">
-        <v>-357.7873554842312</v>
+        <v>-324.4689033667626</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>0.1329545454545454</v>
       </c>
       <c r="B65">
-        <v>-355.4635350273561</v>
+        <v>-322.1450829098876</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>0.1428030303030303</v>
       </c>
       <c r="B66">
-        <v>-353.1397145704811</v>
+        <v>-319.8212624530125</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>0.1526515151515152</v>
       </c>
       <c r="B67">
-        <v>-350.8158941136062</v>
+        <v>-317.4974419961376</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>0.1625</v>
       </c>
       <c r="B68">
-        <v>-348.4920736567311</v>
+        <v>-315.1736215392627</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>0.1723484848484849</v>
       </c>
       <c r="B69">
-        <v>-346.1682531998562</v>
+        <v>-312.8498010823877</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>0.1821969696969697</v>
       </c>
       <c r="B70">
-        <v>-343.8444327429811</v>
+        <v>-310.5259806255126</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>0.1920454545454545</v>
       </c>
       <c r="B71">
-        <v>-341.5206122861063</v>
+        <v>-308.2021601686377</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>0.2018939393939394</v>
       </c>
       <c r="B72">
-        <v>-339.1967918292312</v>
+        <v>-305.8783397117628</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>0.2117424242424243</v>
       </c>
       <c r="B73">
-        <v>-336.8729713723563</v>
+        <v>-303.5545192548877</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>0.2215909090909092</v>
       </c>
       <c r="B74">
-        <v>-334.5491509154813</v>
+        <v>-301.2306987980128</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>0.2314393939393939</v>
       </c>
       <c r="B75">
-        <v>-332.2253304586063</v>
+        <v>-298.9068783411378</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>0.2412878787878788</v>
       </c>
       <c r="B76">
-        <v>-329.9015100017313</v>
+        <v>-296.5830578842628</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>0.2511363636363637</v>
       </c>
       <c r="B77">
-        <v>-327.5776895448563</v>
+        <v>-294.2592374273879</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>0.2609848484848485</v>
       </c>
       <c r="B78">
-        <v>-325.2538690879814</v>
+        <v>-291.9354169705129</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>0.2708333333333334</v>
       </c>
       <c r="B79">
-        <v>-322.9300486311064</v>
+        <v>-289.6115965136378</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>0.2806818181818183</v>
       </c>
       <c r="B80">
-        <v>-320.6062281742314</v>
+        <v>-287.2877760567629</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>0.290530303030303</v>
       </c>
       <c r="B81">
-        <v>-318.2824077173563</v>
+        <v>-284.963955599888</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>0.3003787878787879</v>
       </c>
       <c r="B82">
-        <v>-315.9585872604815</v>
+        <v>-282.6401351430129</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>0.3102272727272728</v>
       </c>
       <c r="B83">
-        <v>-313.6347668036066</v>
+        <v>-280.316314686138</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>0.3200757575757576</v>
       </c>
       <c r="B84">
-        <v>-311.3109463467315</v>
+        <v>-277.9924942292629</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>0.3299242424242425</v>
       </c>
       <c r="B85">
-        <v>-308.9871258898565</v>
+        <v>-275.668673772388</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>0.3397727272727273</v>
       </c>
       <c r="B86">
-        <v>-306.6633054329815</v>
+        <v>-273.344853315513</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>0.3496212121212121</v>
       </c>
       <c r="B87">
-        <v>-304.3394849761066</v>
+        <v>-271.021032858638</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>0.359469696969697</v>
       </c>
       <c r="B88">
-        <v>-302.0156645192316</v>
+        <v>-268.6972124017631</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>0.3693181818181819</v>
       </c>
       <c r="B89">
-        <v>-299.6918440623565</v>
+        <v>-266.373391944888</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>0.3791666666666667</v>
       </c>
       <c r="B90">
-        <v>-297.3680236054817</v>
+        <v>-264.049571488013</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>0.3890151515151515</v>
       </c>
       <c r="B91">
-        <v>-295.0442031486066</v>
+        <v>-261.7257510311381</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>0.3988636363636364</v>
       </c>
       <c r="B92">
-        <v>-292.7203826917316</v>
+        <v>-259.401930574263</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>0.4087121212121213</v>
       </c>
       <c r="B93">
-        <v>-290.3965622348566</v>
+        <v>-257.0781101173881</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>0.4185606060606061</v>
       </c>
       <c r="B94">
-        <v>-288.0727417779816</v>
+        <v>-254.7542896605132</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>0.428409090909091</v>
       </c>
       <c r="B95">
-        <v>-285.7489213211067</v>
+        <v>-252.4304692036382</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>0.4382575757575758</v>
       </c>
       <c r="B96">
-        <v>-283.4251008642317</v>
+        <v>-250.1066487467632</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>0.4481060606060606</v>
       </c>
       <c r="B97">
-        <v>-281.1012804073567</v>
+        <v>-247.7828282898882</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>0.4579545454545455</v>
       </c>
       <c r="B98">
-        <v>-278.7774599504817</v>
+        <v>-245.4590078330131</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>0.4678030303030304</v>
       </c>
       <c r="B99">
-        <v>-276.4536394936067</v>
+        <v>-243.1351873761382</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>0.4776515151515152</v>
       </c>
       <c r="B100">
-        <v>-274.1298190367318</v>
+        <v>-240.8113669192632</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>0.4875</v>
       </c>
       <c r="B101">
-        <v>-271.8059985798568</v>
+        <v>-238.4875464623882</v>
       </c>
     </row>
   </sheetData>
